--- a/data/profesores.xlsx
+++ b/data/profesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Desktop\R\course-r-research\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09772F28-BD3E-4277-BE64-2C0FD2B1C6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9751B-F2FE-408F-B5AA-594867ECC723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8296,8 +8296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA7C6C5-24E1-4550-87E4-890FA9715D62}">
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
